--- a/biology/Botanique/Petitm/Petitm..xlsx
+++ b/biology/Botanique/Petitm/Petitm..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Georges Charles Petitmengin, né le 3 janvier 1881 à Nancy et mort le 19 octobre 1908 (à 27 ans) à Malzéville est un botaniste et pharmacien français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Georges Charles Petitmengin est né le 3 janvier 1881 à Nancy. Quelques mois après sa naissance, sa famille part habiter Malzéville, près de Nancy, où il habitera toute sa vie. Il est le premier fils de Gabriel Petitmengin, né en 1854 à Paris et comptable à Malzéville et de Mathilde Petitmengin née Perny en 1860 à Malzéville. Il effectue ses études à l'école supérieure de pharmacie de Nancy et obtient le diplôme de pharmacien en 1904 (il est déjà préparateur et enseignant à l'école, poste qu'il conservera). Il entame un doctorat de sciences naturelles et étudie la flore du briançonnais et du mont Viso en Italie. En 1905, il accompagne René Maire en Grèce, y retourne en 1906, puis, à la demande du professeur Paul Lecomte et sur les conseils de Monseigneur Léveillé et de Gustave Bonati, il étudie les primulacées sino-japonaises. Il retourne au mont Viso en 1907, mais ne peut achever sa thèse et décède de tuberculose le 19 octobre 1908. Jules Garnier (1882 - 1934), son ami, s'est occupé de ses collections après sa mort.
 Par ailleurs, profondément croyant, il s'est fortement impliqué au sein de l'église réformée de France et de ses œuvres sociales - président de l'association des étudiants protestants en 1906, vice-président de l'Union chrétienne des jeunes gens, moniteur général de l'école du dimanche, président de la société anti-alcoolique…
 De 1900 à 1908, il a fait preuve d'une activité débordante. Ses principales contributions touchent la flore de Lorraine, des Alpes, de Grèce et la famille des Primulacées, tant par les spécimens qu'il a collectés que les identifications qu'il a menées.
 Marcel Petitmengin meurt le 18 octobre 1908 à Malzéville à l'âge de 27 ans.
-S'il n'a produit aucun document théorique, son travail sur les hybrides participe aux interrogations qui émergent alors sur la notion d'espèce et en particulier sur son acception linnéenne[1].
+S'il n'a produit aucun document théorique, son travail sur les hybrides participe aux interrogations qui émergent alors sur la notion d'espèce et en particulier sur son acception linnéenne.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Dédicaces d'espèces qu'il a identifiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les 80 espèces qu'il a identifiées, il en a dédié 38 à ses amis, professeurs, à des religieux et botanistes de son temps. Cette importante proportion de dédicaces (qu'il partage avec les botanistes -tous occidentaux- depuis le début du XIXe siècle) aux dépens d'un descriptif, plus courant chez Linné, témoigne tant des relations tissées entre confrères botanistes que d'une appropriation occidentale du monde, y compris par l'intermédiaire d'une science.
 En premier, dans ses dédicaces, il pense à ses amis, tous de la région nancéienne, et plus ou moins ses confrères :
@@ -599,7 +615,7 @@
 Primula farinosa L. var. matsumurae (Petitm.) T.Yamaz. (il l'avait appelée Primula matsumurae)
 Le baron Eugène Pierre Perrier de La Bâthie (1825-1916), agronome et botaniste, membre de l'Académie de Savoie (plus probablement que son fils Henri Perrier de La Bâthie qui s'est intéressé presque exclusivement à la flore de l'océan indien), à qui il dédie une astéracée hybride des Alpes en 1906 :
 Artemisia x perrieri Petitm.
-Friedrich Richard Rudolf Schlechter à qui, avec Gustave Bonati, il dédie en 1907 deux espèces de Nouvelles-Calédonie collectées par Isidore Franc et versées à l'herbier Boissier, en réponse aux deux publications de 1905 et 1906 sur la flore de Nouvelle-Calédonie[2] :
+Friedrich Richard Rudolf Schlechter à qui, avec Gustave Bonati, il dédie en 1907 deux espèces de Nouvelles-Calédonie collectées par Isidore Franc et versées à l'herbier Boissier, en réponse aux deux publications de 1905 et 1906 sur la flore de Nouvelle-Calédonie :
 Argophyllum schlechterianum Bonati &amp; Petitm. – 1907 - Escalloniacée de Nouvelle-Calédonie (collectée dans les montagnes de Kohgi et Dzumac)
 Gardenia schlechteri Bonati &amp; Petitm. - 1907 - Rubiacée endémique de Nouvelle-Calédonie
 Il dédicace aussi quelques espèces à des personnalités diverses, en relation avec les lieux dont sont originaires les plantes de ces travaux :
@@ -623,7 +639,7 @@
 Primula veitchiana Petitm.
 Maurice de Vilmorin, qui recevait les spécimens collectés au Yunnan par le père Pierre Jean Marie Delavay, et qui a pu correspondre avec Petitmengin ; il lui dédie une primevère de Chine en 1908 :
 Primula vilmoriniana Petitm.
-Hellen Willmott (1858 - 1934), horticultrice britannique célèbre à l'époque, qu'il a peut-être rencontrée à Aix-les-bains où elle avait acquis une propriété, mais qu'il a probablement simplement honorée en raison de la renommée de cette personne à l'instar de nombreux botanistes du début du XXe siècle[3], en lui dédiant une primevère de Chine en 1907 :
+Hellen Willmott (1858 - 1934), horticultrice britannique célèbre à l'époque, qu'il a peut-être rencontrée à Aix-les-bains où elle avait acquis une propriété, mais qu'il a probablement simplement honorée en raison de la renommée de cette personne à l'instar de nombreux botanistes du début du XXe siècle, en lui dédiant une primevère de Chine en 1907 :
 Primula willmottiae Petitm.
 Une dernière dédicace concerne ses convictions religieuses, il s'agit de celle à François Coillard (1834 - 1904), missionnaire protestant en Afrique, à qui il dédie en 1906 une primevère d'Indo-Chine :
 Rubus coillardi Petitm.
@@ -659,7 +675,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Souvenirs d'herborisations à Zermatt (Valais) - Académie de géographie botanique, 1903 p. 355 - 363
 Notes sur quelques nouveautés de la flore française - Le Monde des Plantes : Le Mans, 1904 no 30 - p. 45-48  Document téléchargeable - 1re page et suivantes
@@ -703,7 +721,9 @@
           <t>Espèces qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Un genre de la famille des Scrophulariacées lui a été dédié par son ami Gustave Bonati en 1911 : Petitmenginia.
 De plus cinq espèces autres ont été nommées en son honneur, dont quatre aussi par son ami Gustave Bonati :
